--- a/me163.xlsx
+++ b/me163.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET\8o Periodo\Computacao Grafica\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>contorno ref</t>
   </si>
@@ -46,13 +46,45 @@
   <si>
     <t>cockpit msm</t>
   </si>
+  <si>
+    <t>contorno total</t>
+  </si>
+  <si>
+    <t>bico</t>
+  </si>
+  <si>
+    <t>corpo</t>
+  </si>
+  <si>
+    <t>asa esq</t>
+  </si>
+  <si>
+    <t>primeira cauda</t>
+  </si>
+  <si>
+    <t>segunda calda</t>
+  </si>
+  <si>
+    <t>terceira cauda</t>
+  </si>
+  <si>
+    <t>cockpit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,10 +132,1023 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12288135593220338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0169491525423728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19915254237288135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4745762711864403E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4745762711864403E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9322033898305079E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9322033898305079E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.271186440677966E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.271186440677966E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.9322033898305079E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.9322033898305079E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.4745762711864403E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.4745762711864403E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.19915254237288135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0169491525423728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12288135593220338</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.67796610169491522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46610169491525422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16949152542372881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42372881355932202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26694915254237284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38135593220338981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.43220338983050843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.43220338983050843</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.59322033898305082</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.63559322033898302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.63559322033898302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.59322033898305082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.43220338983050843</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.43220338983050843</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.38135593220338981</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.26694915254237284</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.42372881355932202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.16949152542372881</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46610169491525422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67796610169491522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331734280"/>
+        <c:axId val="326478896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331734280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326478896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="326478896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331734280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +1186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -212,7 +1258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,8 +1775,9 @@
       <c r="F16">
         <v>-0.43220338983050843</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>101</v>
       </c>
@@ -747,7 +1794,7 @@
         <v>-0.43220338983050843</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>-8.4745762711864403E-2</v>
       </c>
@@ -755,79 +1802,945 @@
         <v>-0.38135593220338981</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>-0.19915254237288135</v>
       </c>
       <c r="F19">
         <v>-0.26694915254237284</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>-0.29661016949152541</v>
       </c>
       <c r="F20">
         <v>-0.29661016949152541</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.44491525423728812</v>
+      </c>
+      <c r="O20">
+        <f>10000*M20</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>10000*N20</f>
+        <v>4449.1525423728808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
         <v>-0.42372881355932202</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>4.6610169491525424E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O28" si="5">10000*M21</f>
+        <v>466.10169491525426</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P28" si="6">10000*N21</f>
+        <v>4237.2881355932204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>-1.0169491525423728</v>
       </c>
       <c r="F22">
         <v>-0.16949152542372881</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>7.6271186440677957E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.38135593220338981</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>762.71186440677957</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>3813.5593220338983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>-0.19067796610169491</v>
       </c>
       <c r="F23">
         <v>0.29661016949152541</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>9.3220338983050849E-2</v>
+      </c>
+      <c r="N23">
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>932.20338983050851</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>2542.3728813559319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>-0.12288135593220338</v>
       </c>
       <c r="F24">
         <v>0.46610169491525422</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>2542.3728813559319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
         <v>0.67796610169491522</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>-9.3220338983050849E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>-932.20338983050851</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>2542.3728813559319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>-7.6271186440677957E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.38135593220338981</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>-762.71186440677957</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>3813.5593220338983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>-4.6610169491525424E-2</v>
+      </c>
+      <c r="N27">
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>-466.10169491525426</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>4237.2881355932204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28">
         <f>A17/255</f>
         <v>0.396078431372549</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:G28" si="5">B17/255</f>
+        <f t="shared" ref="F28:G28" si="7">B17/255</f>
         <v>0.49019607843137253</v>
       </c>
       <c r="G28">
+        <f t="shared" si="7"/>
+        <v>0.52549019607843139</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.44491525423728812</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="5"/>
-        <v>0.52549019607843139</v>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>4449.1525423728808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.12288135593220338</v>
+      </c>
+      <c r="C33">
+        <v>0.46610169491525422</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="N33">
+        <f>10000*L33</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>10000*M33</f>
+        <v>6779.6610169491523</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="C34">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="L34">
+        <v>0.12288135593220338</v>
+      </c>
+      <c r="M34">
+        <v>0.46610169491525422</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N38" si="8">10000*L34</f>
+        <v>1228.8135593220338</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O38" si="9">10000*M34</f>
+        <v>4661.0169491525421</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1.0169491525423728</v>
+      </c>
+      <c r="C35">
+        <v>-0.16949152542372881</v>
+      </c>
+      <c r="L35">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="M35">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="8"/>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>-0.42372881355932202</v>
+      </c>
+      <c r="L36">
+        <v>-0.19067796610169499</v>
+      </c>
+      <c r="M36">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>-1906.7796610169498</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="C37">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="L37">
+        <v>-0.12288135593220301</v>
+      </c>
+      <c r="M37">
+        <v>0.46610169491525422</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="8"/>
+        <v>-1228.81355932203</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="9"/>
+        <v>4661.0169491525421</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="C38">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="9"/>
+        <v>6779.6610169491523</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="C39">
+        <v>-0.38135593220338981</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="C40">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="L40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5.9322033898305079E-2</v>
+      </c>
+      <c r="C41">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="L41">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="M41">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="N41" s="1">
+        <f>10000*L41</f>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="O41">
+        <f>10000*M41</f>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5.9322033898305079E-2</v>
+      </c>
+      <c r="C42">
+        <v>-0.59322033898305082</v>
+      </c>
+      <c r="L42">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="M42">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ref="N42:N45" si="10">10000*L42</f>
+        <v>1991.5254237288136</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O45" si="11">10000*M42</f>
+        <v>-2669.4915254237285</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1.271186440677966E-2</v>
+      </c>
+      <c r="C43">
+        <v>-0.63559322033898302</v>
+      </c>
+      <c r="L43">
+        <v>-0.19915254237288099</v>
+      </c>
+      <c r="M43">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="10"/>
+        <v>-1991.52542372881</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="11"/>
+        <v>-2669.4915254237285</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>-1.271186440677966E-2</v>
+      </c>
+      <c r="C44">
+        <v>-0.63559322033898302</v>
+      </c>
+      <c r="L44">
+        <v>-0.19067796610169499</v>
+      </c>
+      <c r="M44">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="10"/>
+        <v>-1906.7796610169498</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="11"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>-5.9322033898305079E-2</v>
+      </c>
+      <c r="C45">
+        <v>-0.59322033898305082</v>
+      </c>
+      <c r="L45">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="M45">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="10"/>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="11"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>-5.9322033898305079E-2</v>
+      </c>
+      <c r="C46">
+        <v>-0.43220338983050843</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>-8.4745762711864403E-2</v>
+      </c>
+      <c r="C47">
+        <v>-0.43220338983050843</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>-8.4745762711864403E-2</v>
+      </c>
+      <c r="C48">
+        <v>-0.38135593220338981</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>-0.19915254237288135</v>
+      </c>
+      <c r="C49">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="E49">
+        <v>-0.19915254237288135</v>
+      </c>
+      <c r="F49">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="G49">
+        <f>10000*E49</f>
+        <v>-1991.5254237288136</v>
+      </c>
+      <c r="H49">
+        <f>10000*F49</f>
+        <v>-2669.4915254237285</v>
+      </c>
+      <c r="J49">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="K49">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="L49">
+        <f>10000*J49</f>
+        <v>1991.5254237288136</v>
+      </c>
+      <c r="M49">
+        <f>10000*K49</f>
+        <v>-2669.4915254237285</v>
+      </c>
+      <c r="O49">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="P49">
+        <v>-0.38135593220338981</v>
+      </c>
+      <c r="Q49">
+        <f>10000*O49</f>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="R49">
+        <f>10000*P49</f>
+        <v>-3813.5593220338983</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="C50">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="E50">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="F50">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50:G54" si="12">10000*E50</f>
+        <v>-2966.101694915254</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50:H54" si="13">10000*F50</f>
+        <v>-2966.101694915254</v>
+      </c>
+      <c r="J50">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="K50">
+        <v>-0.38135593220338981</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50:L53" si="14">10000*J50</f>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50:M53" si="15">10000*K50</f>
+        <v>-3813.5593220338983</v>
+      </c>
+      <c r="O50">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="P50">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50:Q55" si="16">10000*O50</f>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50:R55" si="17">10000*P50</f>
+        <v>-4322.0338983050842</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>-1</v>
+      </c>
+      <c r="C51">
+        <v>-0.42372881355932202</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51">
+        <v>-0.42372881355932202</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="12"/>
+        <v>-10000</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>-4237.2881355932204</v>
+      </c>
+      <c r="J51">
+        <v>-8.4745762711864403E-2</v>
+      </c>
+      <c r="K51">
+        <v>-0.38135593220338981</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="14"/>
+        <v>-847.45762711864404</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="15"/>
+        <v>-3813.5593220338983</v>
+      </c>
+      <c r="O51">
+        <v>5.9322033898305079E-2</v>
+      </c>
+      <c r="P51">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="16"/>
+        <v>593.22033898305074</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="17"/>
+        <v>-4322.0338983050842</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>-1.0169491525423728</v>
+      </c>
+      <c r="C52">
+        <v>-0.16949152542372881</v>
+      </c>
+      <c r="E52">
+        <v>-1.0169491525423728</v>
+      </c>
+      <c r="F52">
+        <v>-0.16949152542372881</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="12"/>
+        <v>-10169.491525423728</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="13"/>
+        <v>-1694.9152542372881</v>
+      </c>
+      <c r="J52">
+        <v>-0.19915254237288099</v>
+      </c>
+      <c r="K52">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="14"/>
+        <v>-1991.52542372881</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="15"/>
+        <v>-2669.4915254237285</v>
+      </c>
+      <c r="O52">
+        <v>-5.93220338983051E-2</v>
+      </c>
+      <c r="P52">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="16"/>
+        <v>-593.22033898305096</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="17"/>
+        <v>-4322.0338983050842</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>-0.19067796610169491</v>
+      </c>
+      <c r="C53">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="E53">
+        <v>-0.19067796610169491</v>
+      </c>
+      <c r="F53">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="12"/>
+        <v>-1906.7796610169491</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="13"/>
+        <v>2966.101694915254</v>
+      </c>
+      <c r="J53">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="K53">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="14"/>
+        <v>1991.5254237288136</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="15"/>
+        <v>-2669.4915254237285</v>
+      </c>
+      <c r="O53">
+        <v>-8.4745762711864403E-2</v>
+      </c>
+      <c r="P53">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="16"/>
+        <v>-847.45762711864404</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="17"/>
+        <v>-4322.0338983050842</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>-0.12288135593220338</v>
+      </c>
+      <c r="C54">
+        <v>0.46610169491525422</v>
+      </c>
+      <c r="E54">
+        <v>-0.19915254237288135</v>
+      </c>
+      <c r="F54">
+        <v>-0.26694915254237284</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="12"/>
+        <v>-1991.5254237288136</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="13"/>
+        <v>-2669.4915254237285</v>
+      </c>
+      <c r="O54">
+        <v>-8.4745762711864403E-2</v>
+      </c>
+      <c r="P54">
+        <v>-0.38135593220338981</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="16"/>
+        <v>-847.45762711864404</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="17"/>
+        <v>-3813.5593220338983</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="O55">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="P55">
+        <v>-0.38135593220338981</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="16"/>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="17"/>
+        <v>-3813.5593220338983</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>5.9322033898305079E-2</v>
+      </c>
+      <c r="K58">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="L58">
+        <f>10000*J58</f>
+        <v>593.22033898305074</v>
+      </c>
+      <c r="M58">
+        <f>10000*K58</f>
+        <v>-4322.0338983050842</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>5.9322033898305079E-2</v>
+      </c>
+      <c r="K59">
+        <v>-0.59322033898305082</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ref="L59:L64" si="18">10000*J59</f>
+        <v>593.22033898305074</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ref="M59:M64" si="19">10000*K59</f>
+        <v>-5932.2033898305081</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>1.271186440677966E-2</v>
+      </c>
+      <c r="K60">
+        <v>-0.63559322033898302</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="18"/>
+        <v>127.11864406779659</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="19"/>
+        <v>-6355.9322033898306</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>-1.271186440677966E-2</v>
+      </c>
+      <c r="K61">
+        <v>-0.63559322033898302</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="18"/>
+        <v>-127.11864406779659</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="19"/>
+        <v>-6355.9322033898306</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>-5.9322033898305079E-2</v>
+      </c>
+      <c r="K62">
+        <v>-0.59322033898305082</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="18"/>
+        <v>-593.22033898305074</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="19"/>
+        <v>-5932.2033898305081</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>-5.9322033898305079E-2</v>
+      </c>
+      <c r="K63">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="18"/>
+        <v>-593.22033898305074</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="19"/>
+        <v>-4322.0338983050842</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>5.9322033898305079E-2</v>
+      </c>
+      <c r="K64">
+        <v>-0.43220338983050843</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="18"/>
+        <v>593.22033898305074</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="19"/>
+        <v>-4322.0338983050842</v>
       </c>
     </row>
   </sheetData>
@@ -835,5 +2748,7 @@
     <sortCondition descending="1" ref="P9:P13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/me163.xlsx
+++ b/me163.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET\8o Periodo\Computacao Grafica\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>contorno ref</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>cockpit</t>
+  </si>
+  <si>
+    <t>detalhe 1 asa esq</t>
+  </si>
+  <si>
+    <t>detalhe 2 asa esq</t>
+  </si>
+  <si>
+    <t>detalhe 1 asa dir</t>
+  </si>
+  <si>
+    <t>detalhe 2 asa dir</t>
+  </si>
+  <si>
+    <t>separador asa esq ref</t>
+  </si>
+  <si>
+    <t>separador asa esq msm</t>
+  </si>
+  <si>
+    <t>separador asa dir msm</t>
+  </si>
+  <si>
+    <t>separador foguete ref</t>
+  </si>
+  <si>
+    <t>separador foguete msm</t>
   </si>
 </sst>
 </file>
@@ -132,1023 +159,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$32:$B$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12288135593220338</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19067796610169491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0169491525423728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19915254237288135</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4745762711864403E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.4745762711864403E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.9322033898305079E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9322033898305079E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.271186440677966E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.271186440677966E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-5.9322033898305079E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5.9322033898305079E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-8.4745762711864403E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-8.4745762711864403E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.19915254237288135</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.0169491525423728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.19067796610169491</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.12288135593220338</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$32:$C$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.67796610169491522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46610169491525422</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.16949152542372881</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.42372881355932202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.26694915254237284</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.38135593220338981</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.43220338983050843</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.43220338983050843</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.59322033898305082</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.63559322033898302</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.63559322033898302</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.59322033898305082</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.43220338983050843</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.43220338983050843</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.38135593220338981</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.26694915254237284</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.42372881355932202</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.16949152542372881</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.46610169491525422</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.67796610169491522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="331734280"/>
-        <c:axId val="326478896"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="331734280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="326478896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="326478896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="331734280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1186,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1258,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1408,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Y8:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1460,7 +474,7 @@
         <v>0.44491525423728812</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.9</v>
       </c>
@@ -1489,8 +503,14 @@
         <f t="shared" ref="N3:N6" si="3">J3/23.6</f>
         <v>0.42372881355932202</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.5</v>
       </c>
@@ -1519,8 +539,20 @@
         <f t="shared" si="3"/>
         <v>0.38135593220338981</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>-4.5</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -1549,8 +581,20 @@
         <f t="shared" si="3"/>
         <v>0.25423728813559321</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>-4.5</v>
+      </c>
+      <c r="S5">
+        <v>-6.5</v>
+      </c>
+      <c r="W5">
+        <v>-2</v>
+      </c>
+      <c r="X5">
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.6</v>
       </c>
@@ -1580,7 +624,7 @@
         <v>0.25423728813559321</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1601,8 +645,14 @@
       <c r="N7">
         <v>0.25423728813559321</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.7</v>
       </c>
@@ -1626,8 +676,40 @@
       <c r="N8">
         <v>0.38135593220338981</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f>R4/23.6</f>
+        <v>-0.19067796610169491</v>
+      </c>
+      <c r="S8">
+        <f>S4/23.6</f>
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="T8">
+        <f>R8*10000</f>
+        <v>-1906.7796610169491</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U9" si="4">S8*10000</f>
+        <v>2966.101694915254</v>
+      </c>
+      <c r="W8">
+        <f>W4/23.6</f>
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8:X9" si="5">X4/23.6</f>
+        <v>-0.4364406779661017</v>
+      </c>
+      <c r="Y8">
+        <f>W8*10000</f>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="Z8">
+        <f>X8*10000</f>
+        <v>-4364.406779661017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1657,8 +739,40 @@
       <c r="N9">
         <v>0.42372881355932202</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f>R5/23.6</f>
+        <v>-0.19067796610169491</v>
+      </c>
+      <c r="S9">
+        <f>S5/23.6</f>
+        <v>-0.27542372881355931</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9" si="6">R9*10000</f>
+        <v>-1906.7796610169491</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>-2754.2372881355932</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9:X9" si="7">W5/23.6</f>
+        <v>-8.4745762711864403E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="5"/>
+        <v>-0.4364406779661017</v>
+      </c>
+      <c r="Y9">
+        <f>W9*10000</f>
+        <v>-847.45762711864404</v>
+      </c>
+      <c r="Z9">
+        <f>X9*10000</f>
+        <v>-4364.406779661017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1680,7 +794,7 @@
         <v>0.44491525423728812</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.4</v>
       </c>
@@ -1695,8 +809,11 @@
         <f t="shared" si="1"/>
         <v>-0.43220338983050843</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
@@ -1714,8 +831,24 @@
       <c r="M12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f>-R8</f>
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="S12">
+        <f>S8</f>
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="T12">
+        <f>R12*10000</f>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:U13" si="8">S12*10000</f>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.3</v>
       </c>
@@ -1735,15 +868,31 @@
         <v>0.80392156862745101</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:O13" si="4">J9/255</f>
+        <f t="shared" ref="N13:O13" si="9">J9/255</f>
         <v>0.80392156862745101</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.80392156862745101</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f>-R9</f>
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="S13">
+        <f>S9</f>
+        <v>-0.27542372881355931</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13" si="10">R13*10000</f>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>-2754.2372881355932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1757,7 +906,7 @@
         <v>-0.63559322033898302</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>-5.9322033898305079E-2</v>
       </c>
@@ -1765,7 +914,7 @@
         <v>-0.59322033898305082</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1777,7 +926,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>101</v>
       </c>
@@ -1794,7 +943,7 @@
         <v>-0.43220338983050843</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>-8.4745762711864403E-2</v>
       </c>
@@ -1802,7 +951,7 @@
         <v>-0.38135593220338981</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>-0.19915254237288135</v>
       </c>
@@ -1812,8 +961,11 @@
       <c r="M19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>-0.29661016949152541</v>
       </c>
@@ -1834,8 +986,22 @@
         <f>10000*N20</f>
         <v>4449.1525423728808</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>-0.68220338983050854</v>
+      </c>
+      <c r="T20">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="U20">
+        <f>S20*10000</f>
+        <v>-6822.0338983050851</v>
+      </c>
+      <c r="V20">
+        <f>T20*10000</f>
+        <v>-423.72881355932202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>-1</v>
       </c>
@@ -1849,15 +1015,29 @@
         <v>0.42372881355932202</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O28" si="5">10000*M21</f>
+        <f t="shared" ref="O21:O28" si="11">10000*M21</f>
         <v>466.10169491525426</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P28" si="6">10000*N21</f>
+        <f t="shared" ref="P21:P28" si="12">10000*N21</f>
         <v>4237.2881355932204</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>-0.71610169491525411</v>
+      </c>
+      <c r="T21">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ref="U21:V41" si="13">S21*10000</f>
+        <v>-7161.0169491525412</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ref="V21:V29" si="14">T21*10000</f>
+        <v>-423.72881355932202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>-1.0169491525423728</v>
       </c>
@@ -1871,15 +1051,29 @@
         <v>0.38135593220338981</v>
       </c>
       <c r="O22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>762.71186440677957</v>
       </c>
       <c r="P22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3813.5593220338983</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>-0.71610169491525411</v>
+      </c>
+      <c r="T22">
+        <v>-0.16949152542372881</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="13"/>
+        <v>-7161.0169491525412</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="14"/>
+        <v>-1694.9152542372881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>-0.19067796610169491</v>
       </c>
@@ -1893,15 +1087,29 @@
         <v>0.25423728813559321</v>
       </c>
       <c r="O23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>932.20338983050851</v>
       </c>
       <c r="P23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2542.3728813559319</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>-0.68220338983050854</v>
+      </c>
+      <c r="T23">
+        <v>-0.16949152542372881</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>-6822.0338983050851</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="14"/>
+        <v>-1694.9152542372881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>-0.12288135593220338</v>
       </c>
@@ -1915,15 +1123,15 @@
         <v>0.25423728813559321</v>
       </c>
       <c r="O24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2542.3728813559319</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>0</v>
       </c>
@@ -1937,15 +1145,18 @@
         <v>0.25423728813559321</v>
       </c>
       <c r="O25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-932.20338983050851</v>
       </c>
       <c r="P25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2542.3728813559319</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M26">
         <v>-7.6271186440677957E-2</v>
       </c>
@@ -1953,15 +1164,29 @@
         <v>0.38135593220338981</v>
       </c>
       <c r="O26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-762.71186440677957</v>
       </c>
       <c r="P26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3813.5593220338983</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>-0.63559322033898302</v>
+      </c>
+      <c r="T26">
+        <v>-8.8983050847457626E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="13"/>
+        <v>-6355.9322033898306</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="14"/>
+        <v>-889.83050847457628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>3</v>
       </c>
@@ -1972,25 +1197,39 @@
         <v>0.42372881355932202</v>
       </c>
       <c r="O27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-466.10169491525426</v>
       </c>
       <c r="P27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4237.2881355932204</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>-0.76271186440677963</v>
+      </c>
+      <c r="T27">
+        <v>-8.8983050847457626E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="13"/>
+        <v>-7627.1186440677966</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="14"/>
+        <v>-889.83050847457628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E28">
         <f>A17/255</f>
         <v>0.396078431372549</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:G28" si="7">B17/255</f>
+        <f t="shared" ref="F28:G28" si="15">B17/255</f>
         <v>0.49019607843137253</v>
       </c>
       <c r="G28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.52549019607843139</v>
       </c>
       <c r="M28">
@@ -2000,20 +1239,53 @@
         <v>0.44491525423728812</v>
       </c>
       <c r="O28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4449.1525423728808</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>-0.76271186440677963</v>
+      </c>
+      <c r="T28">
+        <v>-0.12288135593220338</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="13"/>
+        <v>-7627.1186440677966</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="14"/>
+        <v>-1228.8135593220338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>-0.63559322033898302</v>
+      </c>
+      <c r="T29">
+        <v>-0.12288135593220338</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="13"/>
+        <v>-6355.9322033898306</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="13"/>
+        <v>-1228.8135593220338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
@@ -2023,8 +1295,23 @@
       <c r="L32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <f>-S20</f>
+        <v>0.68220338983050854</v>
+      </c>
+      <c r="T32">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="13"/>
+        <v>6822.0338983050851</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="13"/>
+        <v>-423.72881355932202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.12288135593220338</v>
       </c>
@@ -2045,8 +1332,23 @@
         <f>10000*M33</f>
         <v>6779.6610169491523</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f t="shared" ref="S33:S41" si="16">-S21</f>
+        <v>0.71610169491525411</v>
+      </c>
+      <c r="T33">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="13"/>
+        <v>7161.0169491525412</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="13"/>
+        <v>-423.72881355932202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.19067796610169491</v>
       </c>
@@ -2060,15 +1362,30 @@
         <v>0.46610169491525422</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N38" si="8">10000*L34</f>
+        <f t="shared" ref="N34:N38" si="17">10000*L34</f>
         <v>1228.8135593220338</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O38" si="9">10000*M34</f>
+        <f t="shared" ref="O34:O38" si="18">10000*M34</f>
         <v>4661.0169491525421</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <f t="shared" si="16"/>
+        <v>0.71610169491525411</v>
+      </c>
+      <c r="T34">
+        <v>-0.16949152542372881</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="13"/>
+        <v>7161.0169491525412</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="13"/>
+        <v>-1694.9152542372881</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.0169491525423728</v>
       </c>
@@ -2082,15 +1399,30 @@
         <v>0.29661016949152541</v>
       </c>
       <c r="N35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1906.7796610169491</v>
       </c>
       <c r="O35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2966.101694915254</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f t="shared" si="16"/>
+        <v>0.68220338983050854</v>
+      </c>
+      <c r="T35">
+        <v>-0.16949152542372881</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="13"/>
+        <v>6822.0338983050851</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="13"/>
+        <v>-1694.9152542372881</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
@@ -2104,15 +1436,15 @@
         <v>0.29661016949152541</v>
       </c>
       <c r="N36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-1906.7796610169498</v>
       </c>
       <c r="O36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2966.101694915254</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.29661016949152541</v>
       </c>
@@ -2126,15 +1458,18 @@
         <v>0.46610169491525422</v>
       </c>
       <c r="N37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-1228.81355932203</v>
       </c>
       <c r="O37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4661.0169491525421</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.19915254237288135</v>
       </c>
@@ -2148,23 +1483,53 @@
         <v>0.67796610169491522</v>
       </c>
       <c r="N38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6779.6610169491523</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <f t="shared" si="16"/>
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="T38">
+        <v>-8.8983050847457626E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="13"/>
+        <v>6355.9322033898306</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="13"/>
+        <v>-889.83050847457628</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>8.4745762711864403E-2</v>
       </c>
       <c r="C39">
         <v>-0.38135593220338981</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <f t="shared" si="16"/>
+        <v>0.76271186440677963</v>
+      </c>
+      <c r="T39">
+        <v>-8.8983050847457626E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="13"/>
+        <v>7627.1186440677966</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="13"/>
+        <v>-889.83050847457628</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>8.4745762711864403E-2</v>
       </c>
@@ -2174,8 +1539,23 @@
       <c r="L40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f t="shared" si="16"/>
+        <v>0.76271186440677963</v>
+      </c>
+      <c r="T40">
+        <v>-0.12288135593220338</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="13"/>
+        <v>7627.1186440677966</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="13"/>
+        <v>-1228.8135593220338</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>5.9322033898305079E-2</v>
       </c>
@@ -2196,8 +1576,23 @@
         <f>10000*M41</f>
         <v>2966.101694915254</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <f t="shared" si="16"/>
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="T41">
+        <v>-0.12288135593220338</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="13"/>
+        <v>6355.9322033898306</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="13"/>
+        <v>-1228.8135593220338</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>5.9322033898305079E-2</v>
       </c>
@@ -2211,15 +1606,15 @@
         <v>-0.26694915254237284</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" ref="N42:N45" si="10">10000*L42</f>
+        <f t="shared" ref="N42:N45" si="19">10000*L42</f>
         <v>1991.5254237288136</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:O45" si="11">10000*M42</f>
+        <f t="shared" ref="O42:O45" si="20">10000*M42</f>
         <v>-2669.4915254237285</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.271186440677966E-2</v>
       </c>
@@ -2233,15 +1628,15 @@
         <v>-0.26694915254237284</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>-1991.52542372881</v>
       </c>
       <c r="O43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-2669.4915254237285</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>-1.271186440677966E-2</v>
       </c>
@@ -2255,15 +1650,15 @@
         <v>0.29661016949152541</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>-1906.7796610169498</v>
       </c>
       <c r="O44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2966.101694915254</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>-5.9322033898305079E-2</v>
       </c>
@@ -2277,15 +1672,15 @@
         <v>0.29661016949152541</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1906.7796610169491</v>
       </c>
       <c r="O45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2966.101694915254</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>-5.9322033898305079E-2</v>
       </c>
@@ -2293,7 +1688,7 @@
         <v>-0.43220338983050843</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>-8.4745762711864403E-2</v>
       </c>
@@ -2301,7 +1696,7 @@
         <v>-0.43220338983050843</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>-8.4745762711864403E-2</v>
       </c>
@@ -2382,11 +1777,11 @@
         <v>-0.29661016949152541</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G54" si="12">10000*E50</f>
+        <f t="shared" ref="G50:G54" si="21">10000*E50</f>
         <v>-2966.101694915254</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50:H54" si="13">10000*F50</f>
+        <f t="shared" ref="H50:H54" si="22">10000*F50</f>
         <v>-2966.101694915254</v>
       </c>
       <c r="J50">
@@ -2396,11 +1791,11 @@
         <v>-0.38135593220338981</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50:L53" si="14">10000*J50</f>
+        <f t="shared" ref="L50:L53" si="23">10000*J50</f>
         <v>847.45762711864404</v>
       </c>
       <c r="M50">
-        <f t="shared" ref="M50:M53" si="15">10000*K50</f>
+        <f t="shared" ref="M50:M53" si="24">10000*K50</f>
         <v>-3813.5593220338983</v>
       </c>
       <c r="O50">
@@ -2410,11 +1805,11 @@
         <v>-0.43220338983050843</v>
       </c>
       <c r="Q50">
-        <f t="shared" ref="Q50:Q55" si="16">10000*O50</f>
+        <f t="shared" ref="Q50:Q55" si="25">10000*O50</f>
         <v>847.45762711864404</v>
       </c>
       <c r="R50">
-        <f t="shared" ref="R50:R55" si="17">10000*P50</f>
+        <f t="shared" ref="R50:R55" si="26">10000*P50</f>
         <v>-4322.0338983050842</v>
       </c>
     </row>
@@ -2432,11 +1827,11 @@
         <v>-0.42372881355932202</v>
       </c>
       <c r="G51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-10000</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>-4237.2881355932204</v>
       </c>
       <c r="J51">
@@ -2446,11 +1841,11 @@
         <v>-0.38135593220338981</v>
       </c>
       <c r="L51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-847.45762711864404</v>
       </c>
       <c r="M51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>-3813.5593220338983</v>
       </c>
       <c r="O51">
@@ -2460,11 +1855,11 @@
         <v>-0.43220338983050843</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>593.22033898305074</v>
       </c>
       <c r="R51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-4322.0338983050842</v>
       </c>
     </row>
@@ -2482,11 +1877,11 @@
         <v>-0.16949152542372881</v>
       </c>
       <c r="G52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-10169.491525423728</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>-1694.9152542372881</v>
       </c>
       <c r="J52">
@@ -2496,11 +1891,11 @@
         <v>-0.26694915254237284</v>
       </c>
       <c r="L52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-1991.52542372881</v>
       </c>
       <c r="M52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>-2669.4915254237285</v>
       </c>
       <c r="O52">
@@ -2510,11 +1905,11 @@
         <v>-0.43220338983050843</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>-593.22033898305096</v>
       </c>
       <c r="R52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-4322.0338983050842</v>
       </c>
     </row>
@@ -2532,11 +1927,11 @@
         <v>0.29661016949152541</v>
       </c>
       <c r="G53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1906.7796610169491</v>
       </c>
       <c r="H53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2966.101694915254</v>
       </c>
       <c r="J53">
@@ -2546,11 +1941,11 @@
         <v>-0.26694915254237284</v>
       </c>
       <c r="L53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1991.5254237288136</v>
       </c>
       <c r="M53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>-2669.4915254237285</v>
       </c>
       <c r="O53">
@@ -2560,11 +1955,11 @@
         <v>-0.43220338983050843</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>-847.45762711864404</v>
       </c>
       <c r="R53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-4322.0338983050842</v>
       </c>
     </row>
@@ -2582,11 +1977,11 @@
         <v>-0.26694915254237284</v>
       </c>
       <c r="G54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1991.5254237288136</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>-2669.4915254237285</v>
       </c>
       <c r="O54">
@@ -2596,11 +1991,11 @@
         <v>-0.38135593220338981</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>-847.45762711864404</v>
       </c>
       <c r="R54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-3813.5593220338983</v>
       </c>
     </row>
@@ -2618,11 +2013,11 @@
         <v>-0.38135593220338981</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>847.45762711864404</v>
       </c>
       <c r="R55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-3813.5593220338983</v>
       </c>
     </row>
@@ -2655,11 +2050,11 @@
         <v>-0.59322033898305082</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L59:L64" si="18">10000*J59</f>
+        <f t="shared" ref="L59:L64" si="27">10000*J59</f>
         <v>593.22033898305074</v>
       </c>
       <c r="M59">
-        <f t="shared" ref="M59:M64" si="19">10000*K59</f>
+        <f t="shared" ref="M59:M64" si="28">10000*K59</f>
         <v>-5932.2033898305081</v>
       </c>
     </row>
@@ -2671,11 +2066,11 @@
         <v>-0.63559322033898302</v>
       </c>
       <c r="L60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>127.11864406779659</v>
       </c>
       <c r="M60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-6355.9322033898306</v>
       </c>
     </row>
@@ -2687,11 +2082,11 @@
         <v>-0.63559322033898302</v>
       </c>
       <c r="L61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-127.11864406779659</v>
       </c>
       <c r="M61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-6355.9322033898306</v>
       </c>
     </row>
@@ -2703,11 +2098,11 @@
         <v>-0.59322033898305082</v>
       </c>
       <c r="L62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-593.22033898305074</v>
       </c>
       <c r="M62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-5932.2033898305081</v>
       </c>
     </row>
@@ -2719,11 +2114,11 @@
         <v>-0.43220338983050843</v>
       </c>
       <c r="L63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-593.22033898305074</v>
       </c>
       <c r="M63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-4322.0338983050842</v>
       </c>
     </row>
@@ -2735,11 +2130,11 @@
         <v>-0.43220338983050843</v>
       </c>
       <c r="L64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>593.22033898305074</v>
       </c>
       <c r="M64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-4322.0338983050842</v>
       </c>
     </row>
@@ -2749,6 +2144,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>